--- a/3.详细测试计划/详细测试计划_XYM.xlsx
+++ b/3.详细测试计划/详细测试计划_XYM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="22020" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="成员分工" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>任务序号</t>
   </si>
@@ -42,6 +42,126 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>work01</t>
+  </si>
+  <si>
+    <t>测试计划</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>work02</t>
+  </si>
+  <si>
+    <t>测试需求分析</t>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>work03</t>
+  </si>
+  <si>
+    <t>详细测试计划</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>work04</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>项目组全体</t>
+  </si>
+  <si>
+    <t>work05</t>
+  </si>
+  <si>
+    <t>功能测试计划</t>
+  </si>
+  <si>
+    <t>work06</t>
+  </si>
+  <si>
+    <t>手工测试用例录入</t>
+  </si>
+  <si>
+    <t>技术总监</t>
+  </si>
+  <si>
+    <t>work07</t>
+  </si>
+  <si>
+    <t>手工测试用例执行</t>
+  </si>
+  <si>
+    <t>测试人员</t>
+  </si>
+  <si>
+    <t>work08</t>
+  </si>
+  <si>
+    <t>自动化测试脚本和报告</t>
+  </si>
+  <si>
+    <t>work09</t>
+  </si>
+  <si>
+    <t>功能测试报告</t>
+  </si>
+  <si>
+    <t>work10</t>
+  </si>
+  <si>
+    <t>功能测试缺陷</t>
+  </si>
+  <si>
+    <t>测试开发</t>
+  </si>
+  <si>
+    <t>work11</t>
+  </si>
+  <si>
+    <t>性能测试计划</t>
+  </si>
+  <si>
+    <t>work12</t>
+  </si>
+  <si>
+    <t>性能测试用例</t>
+  </si>
+  <si>
+    <t>work13</t>
+  </si>
+  <si>
+    <t>性能测试脚本场景报告</t>
+  </si>
+  <si>
+    <t>work14</t>
+  </si>
+  <si>
+    <t>测试总结</t>
+  </si>
+  <si>
+    <t>work15</t>
+  </si>
+  <si>
+    <t>其他输出物</t>
+  </si>
+  <si>
+    <t>work16</t>
+  </si>
+  <si>
+    <t>work17</t>
   </si>
 </sst>
 </file>
@@ -49,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,13 +192,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,37 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,8 +234,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +308,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,41 +561,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -492,9 +577,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +601,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,6 +639,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -537,7 +657,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,142 +666,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1047,229 +1178,391 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5583333333333" customWidth="1"/>
-    <col min="4" max="4" width="21.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="1" max="1" width="10.5583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43381</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43382</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43381</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43382</v>
+      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43382</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43384</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43381</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43391</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43382</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43391</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43391</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43392</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43392</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43395</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43391</v>
+      </c>
+      <c r="H9" s="4">
+        <v>43392</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43395</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43395</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F8 F1:F6 F9:F11 F12:F1048576">
       <formula1>"未开始,进行中,延迟,完成,阻塞"</formula1>
     </dataValidation>
   </dataValidations>
